--- a/output2.xlsx
+++ b/output2.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J25"/>
+  <dimension ref="A1:K25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,45 +395,50 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Cuasidesviación</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Número de Valoraciones</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Mediana</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Cuasidesviación</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Mediana</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>Moda</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>Opinión del 1 al 6</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>fi</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Fi</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Hi</t>
         </is>
@@ -446,23 +451,23 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
+        <v>0.6189243203857999</v>
+      </c>
+      <c r="C2" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="D2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>5.727272727272728</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>0.6189243203857999</v>
-      </c>
-      <c r="E2" s="1" t="n">
+      <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G2" t="n">
-        <v>0</v>
-      </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
@@ -470,6 +475,9 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -479,12 +487,10 @@
       <c r="C3" s="1" t="n"/>
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
-      <c r="F3" s="1" t="n">
+      <c r="F3" s="1" t="n"/>
+      <c r="G3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
@@ -492,6 +498,9 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -501,12 +510,10 @@
       <c r="C4" s="1" t="n"/>
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="1" t="n"/>
+      <c r="G4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
@@ -514,6 +521,9 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -523,19 +533,20 @@
       <c r="C5" s="1" t="n"/>
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
-      <c r="F5" s="1" t="n">
+      <c r="F5" s="1" t="n"/>
+      <c r="G5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>12</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>12</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>9.090909090909092</v>
       </c>
     </row>
@@ -545,19 +556,20 @@
       <c r="C6" s="1" t="n"/>
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
-      <c r="F6" s="1" t="n">
+      <c r="F6" s="1" t="n"/>
+      <c r="G6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>12</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>9.090909090909092</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>24</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>18.18181818181818</v>
       </c>
     </row>
@@ -567,19 +579,20 @@
       <c r="C7" s="1" t="n"/>
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
-      <c r="F7" s="1" t="n">
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>108</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>81.81818181818183</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>132</v>
       </c>
-      <c r="J7" t="n">
+      <c r="K7" t="n">
         <v>100</v>
       </c>
     </row>
@@ -590,23 +603,23 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
+        <v>0.5166244188642394</v>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="C8" s="1" t="n">
+      <c r="D8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E8" s="1" t="n">
         <v>5.823529411764706</v>
       </c>
-      <c r="D8" s="1" t="n">
-        <v>0.5166244188642394</v>
-      </c>
-      <c r="E8" s="1" t="n">
+      <c r="F8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F8" s="1" t="n">
+      <c r="G8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
@@ -614,6 +627,9 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -623,12 +639,10 @@
       <c r="C9" s="1" t="n"/>
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
-      <c r="F9" s="1" t="n">
+      <c r="F9" s="1" t="n"/>
+      <c r="G9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
       <c r="H9" t="n">
         <v>0</v>
       </c>
@@ -636,6 +650,9 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -645,12 +662,10 @@
       <c r="C10" s="1" t="n"/>
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
-      <c r="F10" s="1" t="n">
+      <c r="F10" s="1" t="n"/>
+      <c r="G10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
@@ -658,6 +673,9 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -667,19 +685,20 @@
       <c r="C11" s="1" t="n"/>
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
-      <c r="F11" s="1" t="n">
+      <c r="F11" s="1" t="n"/>
+      <c r="G11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>4</v>
       </c>
-      <c r="J11" t="n">
+      <c r="K11" t="n">
         <v>5.88235294117647</v>
       </c>
     </row>
@@ -689,19 +708,20 @@
       <c r="C12" s="1" t="n"/>
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
-      <c r="F12" s="1" t="n">
+      <c r="F12" s="1" t="n"/>
+      <c r="G12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>4</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>8</v>
       </c>
-      <c r="J12" t="n">
+      <c r="K12" t="n">
         <v>11.76470588235294</v>
       </c>
     </row>
@@ -711,19 +731,20 @@
       <c r="C13" s="1" t="n"/>
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
-      <c r="F13" s="1" t="n">
+      <c r="F13" s="1" t="n"/>
+      <c r="G13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>60</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>88.23529411764706</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>68</v>
       </c>
-      <c r="J13" t="n">
+      <c r="K13" t="n">
         <v>100</v>
       </c>
     </row>
@@ -734,23 +755,23 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
+        <v>0.7802355903888978</v>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>156</v>
       </c>
-      <c r="C14" s="1" t="n">
+      <c r="D14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="E14" s="1" t="n">
         <v>5.564102564102564</v>
       </c>
-      <c r="D14" s="1" t="n">
-        <v>0.7802355903888978</v>
-      </c>
-      <c r="E14" s="1" t="n">
+      <c r="F14" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F14" s="1" t="n">
+      <c r="G14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
       <c r="H14" t="n">
         <v>0</v>
       </c>
@@ -758,6 +779,9 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -767,12 +791,10 @@
       <c r="C15" s="1" t="n"/>
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
-      <c r="F15" s="1" t="n">
+      <c r="F15" s="1" t="n"/>
+      <c r="G15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
       <c r="H15" t="n">
         <v>0</v>
       </c>
@@ -780,6 +802,9 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -789,12 +814,10 @@
       <c r="C16" s="1" t="n"/>
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="1" t="n">
+      <c r="F16" s="1" t="n"/>
+      <c r="G16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
@@ -802,6 +825,9 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -811,19 +837,20 @@
       <c r="C17" s="1" t="n"/>
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
-      <c r="F17" s="1" t="n">
+      <c r="F17" s="1" t="n"/>
+      <c r="G17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>28</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>17.94871794871795</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>28</v>
       </c>
-      <c r="J17" t="n">
+      <c r="K17" t="n">
         <v>17.94871794871795</v>
       </c>
     </row>
@@ -833,19 +860,20 @@
       <c r="C18" s="1" t="n"/>
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
-      <c r="F18" s="1" t="n">
+      <c r="F18" s="1" t="n"/>
+      <c r="G18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>12</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>7.692307692307693</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>40</v>
       </c>
-      <c r="J18" t="n">
+      <c r="K18" t="n">
         <v>25.64102564102564</v>
       </c>
     </row>
@@ -855,19 +883,20 @@
       <c r="C19" s="1" t="n"/>
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
-      <c r="F19" s="1" t="n">
+      <c r="F19" s="1" t="n"/>
+      <c r="G19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>116</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>74.35897435897436</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>156</v>
       </c>
-      <c r="J19" t="n">
+      <c r="K19" t="n">
         <v>100</v>
       </c>
     </row>
@@ -877,18 +906,18 @@
           <t>W</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="1" t="inlineStr"/>
+      <c r="B20" s="1" t="inlineStr"/>
+      <c r="C20" s="1" t="n">
+        <v>0</v>
+      </c>
       <c r="D20" s="1" t="inlineStr"/>
       <c r="E20" s="1" t="inlineStr"/>
       <c r="F20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -896,6 +925,9 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -905,12 +937,10 @@
       <c r="C21" s="1" t="n"/>
       <c r="D21" s="1" t="n"/>
       <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n">
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
@@ -918,6 +948,9 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -927,12 +960,10 @@
       <c r="C22" s="1" t="n"/>
       <c r="D22" s="1" t="n"/>
       <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n">
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
@@ -940,6 +971,9 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -949,12 +983,10 @@
       <c r="C23" s="1" t="n"/>
       <c r="D23" s="1" t="n"/>
       <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n">
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -962,6 +994,9 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -971,12 +1006,10 @@
       <c r="C24" s="1" t="n"/>
       <c r="D24" s="1" t="n"/>
       <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n">
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
       <c r="H24" t="n">
         <v>0</v>
       </c>
@@ -984,6 +1017,9 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -993,12 +1029,10 @@
       <c r="C25" s="1" t="n"/>
       <c r="D25" s="1" t="n"/>
       <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n">
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
@@ -1008,9 +1042,12 @@
       <c r="J25" t="n">
         <v>0</v>
       </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="24">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
@@ -1031,6 +1068,10 @@
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
     <mergeCell ref="E20:E25"/>
+    <mergeCell ref="F2:F7"/>
+    <mergeCell ref="F8:F13"/>
+    <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F20:F25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K25"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -395,22 +395,22 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Número de Valoraciones</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Media</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Cuasidesviación</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Número de Valoraciones</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Mediana</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Media</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -451,16 +451,16 @@
         </is>
       </c>
       <c r="B2" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <v>5.727272727272728</v>
+      </c>
+      <c r="D2" s="1" t="n">
         <v>0.6189243203857999</v>
       </c>
-      <c r="C2" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="D2" s="1" t="n">
+      <c r="E2" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>5.727272727272728</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
@@ -603,16 +603,16 @@
         </is>
       </c>
       <c r="B8" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>5.823529411764706</v>
+      </c>
+      <c r="D8" s="1" t="n">
         <v>0.5166244188642394</v>
       </c>
-      <c r="C8" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="D8" s="1" t="n">
+      <c r="E8" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="E8" s="1" t="n">
-        <v>5.823529411764706</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>6</v>
@@ -755,16 +755,16 @@
         </is>
       </c>
       <c r="B14" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>5.564102564102564</v>
+      </c>
+      <c r="D14" s="1" t="n">
         <v>0.7802355903888978</v>
       </c>
-      <c r="C14" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="D14" s="1" t="n">
+      <c r="E14" s="1" t="n">
         <v>6</v>
-      </c>
-      <c r="E14" s="1" t="n">
-        <v>5.564102564102564</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>6</v>
@@ -900,178 +900,26 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr"/>
-      <c r="C20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1" t="inlineStr"/>
-      <c r="E20" s="1" t="inlineStr"/>
-      <c r="F20" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="24">
+  <mergeCells count="18">
     <mergeCell ref="A2:A7"/>
     <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A19"/>
-    <mergeCell ref="A20:A25"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B25"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E20:E25"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F20:F25"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -390,55 +390,60 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Especialidad</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>Libro</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Número de Valoraciones</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Media</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Cuasidesviación</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Mediana</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Moda</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Opinión del 1 al 6</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>fi</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>hi</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Fi</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Hi</t>
         </is>
@@ -447,30 +452,32 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>Libro 18</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="n">
-        <v>132</v>
+          <t>Economía</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Libro 42 </t>
+        </is>
       </c>
       <c r="C2" s="1" t="n">
-        <v>5.727272727272728</v>
+        <v>156</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>0.6189243203857999</v>
+        <v>5.564102564102564</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>6</v>
+        <v>0.7802355903888978</v>
       </c>
       <c r="F2" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
@@ -478,6 +485,9 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
         <v>0</v>
       </c>
     </row>
@@ -488,12 +498,10 @@
       <c r="D3" s="1" t="n"/>
       <c r="E3" s="1" t="n"/>
       <c r="F3" s="1" t="n"/>
-      <c r="G3" s="1" t="n">
+      <c r="G3" s="1" t="n"/>
+      <c r="H3" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
@@ -501,6 +509,9 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -511,12 +522,10 @@
       <c r="D4" s="1" t="n"/>
       <c r="E4" s="1" t="n"/>
       <c r="F4" s="1" t="n"/>
-      <c r="G4" s="1" t="n">
+      <c r="G4" s="1" t="n"/>
+      <c r="H4" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
@@ -524,6 +533,9 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
         <v>0</v>
       </c>
     </row>
@@ -534,20 +546,21 @@
       <c r="D5" s="1" t="n"/>
       <c r="E5" s="1" t="n"/>
       <c r="F5" s="1" t="n"/>
-      <c r="G5" s="1" t="n">
+      <c r="G5" s="1" t="n"/>
+      <c r="H5" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H5" t="n">
-        <v>12</v>
-      </c>
       <c r="I5" t="n">
-        <v>9.090909090909092</v>
+        <v>28</v>
       </c>
       <c r="J5" t="n">
-        <v>12</v>
+        <v>17.94871794871795</v>
       </c>
       <c r="K5" t="n">
-        <v>9.090909090909092</v>
+        <v>28</v>
+      </c>
+      <c r="L5" t="n">
+        <v>17.94871794871795</v>
       </c>
     </row>
     <row r="6">
@@ -557,20 +570,21 @@
       <c r="D6" s="1" t="n"/>
       <c r="E6" s="1" t="n"/>
       <c r="F6" s="1" t="n"/>
-      <c r="G6" s="1" t="n">
+      <c r="G6" s="1" t="n"/>
+      <c r="H6" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>12</v>
       </c>
-      <c r="I6" t="n">
-        <v>9.090909090909092</v>
-      </c>
       <c r="J6" t="n">
-        <v>24</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="K6" t="n">
-        <v>18.18181818181818</v>
+        <v>40</v>
+      </c>
+      <c r="L6" t="n">
+        <v>25.64102564102564</v>
       </c>
     </row>
     <row r="7">
@@ -580,49 +594,48 @@
       <c r="D7" s="1" t="n"/>
       <c r="E7" s="1" t="n"/>
       <c r="F7" s="1" t="n"/>
-      <c r="G7" s="1" t="n">
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H7" t="n">
-        <v>108</v>
-      </c>
       <c r="I7" t="n">
-        <v>81.81818181818183</v>
+        <v>116</v>
       </c>
       <c r="J7" t="n">
+        <v>74.35897435897436</v>
+      </c>
+      <c r="K7" t="n">
+        <v>156</v>
+      </c>
+      <c r="L7" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="1" t="inlineStr">
+        <is>
+          <t>Libro 18</t>
+        </is>
+      </c>
+      <c r="C8" s="1" t="n">
         <v>132</v>
       </c>
-      <c r="K7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Libro 25</t>
-        </is>
-      </c>
-      <c r="B8" s="1" t="n">
-        <v>68</v>
-      </c>
-      <c r="C8" s="1" t="n">
-        <v>5.823529411764706</v>
-      </c>
       <c r="D8" s="1" t="n">
-        <v>0.5166244188642394</v>
+        <v>5.727272727272728</v>
       </c>
       <c r="E8" s="1" t="n">
-        <v>6</v>
+        <v>0.6189243203857999</v>
       </c>
       <c r="F8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
@@ -630,6 +643,9 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -640,12 +656,10 @@
       <c r="D9" s="1" t="n"/>
       <c r="E9" s="1" t="n"/>
       <c r="F9" s="1" t="n"/>
-      <c r="G9" s="1" t="n">
+      <c r="G9" s="1" t="n"/>
+      <c r="H9" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
@@ -653,6 +667,9 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
         <v>0</v>
       </c>
     </row>
@@ -663,12 +680,10 @@
       <c r="D10" s="1" t="n"/>
       <c r="E10" s="1" t="n"/>
       <c r="F10" s="1" t="n"/>
-      <c r="G10" s="1" t="n">
+      <c r="G10" s="1" t="n"/>
+      <c r="H10" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
@@ -676,6 +691,9 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -686,20 +704,21 @@
       <c r="D11" s="1" t="n"/>
       <c r="E11" s="1" t="n"/>
       <c r="F11" s="1" t="n"/>
-      <c r="G11" s="1" t="n">
+      <c r="G11" s="1" t="n"/>
+      <c r="H11" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H11" t="n">
-        <v>4</v>
-      </c>
       <c r="I11" t="n">
-        <v>5.88235294117647</v>
+        <v>12</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="K11" t="n">
-        <v>5.88235294117647</v>
+        <v>12</v>
+      </c>
+      <c r="L11" t="n">
+        <v>9.090909090909092</v>
       </c>
     </row>
     <row r="12">
@@ -709,20 +728,21 @@
       <c r="D12" s="1" t="n"/>
       <c r="E12" s="1" t="n"/>
       <c r="F12" s="1" t="n"/>
-      <c r="G12" s="1" t="n">
+      <c r="G12" s="1" t="n"/>
+      <c r="H12" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H12" t="n">
-        <v>4</v>
-      </c>
       <c r="I12" t="n">
-        <v>5.88235294117647</v>
+        <v>12</v>
       </c>
       <c r="J12" t="n">
-        <v>8</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="K12" t="n">
-        <v>11.76470588235294</v>
+        <v>24</v>
+      </c>
+      <c r="L12" t="n">
+        <v>18.18181818181818</v>
       </c>
     </row>
     <row r="13">
@@ -732,49 +752,48 @@
       <c r="D13" s="1" t="n"/>
       <c r="E13" s="1" t="n"/>
       <c r="F13" s="1" t="n"/>
-      <c r="G13" s="1" t="n">
+      <c r="G13" s="1" t="n"/>
+      <c r="H13" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H13" t="n">
-        <v>60</v>
-      </c>
       <c r="I13" t="n">
-        <v>88.23529411764706</v>
+        <v>108</v>
       </c>
       <c r="J13" t="n">
+        <v>81.81818181818183</v>
+      </c>
+      <c r="K13" t="n">
+        <v>132</v>
+      </c>
+      <c r="L13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="1" t="inlineStr">
+        <is>
+          <t>Libro 25</t>
+        </is>
+      </c>
+      <c r="C14" s="1" t="n">
         <v>68</v>
       </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Libro 42 </t>
-        </is>
-      </c>
-      <c r="B14" s="1" t="n">
-        <v>156</v>
-      </c>
-      <c r="C14" s="1" t="n">
-        <v>5.564102564102564</v>
-      </c>
       <c r="D14" s="1" t="n">
-        <v>0.7802355903888978</v>
+        <v>5.823529411764706</v>
       </c>
       <c r="E14" s="1" t="n">
-        <v>6</v>
+        <v>0.5166244188642394</v>
       </c>
       <c r="F14" s="1" t="n">
         <v>6</v>
       </c>
       <c r="G14" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H14" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
@@ -782,6 +801,9 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -792,12 +814,10 @@
       <c r="D15" s="1" t="n"/>
       <c r="E15" s="1" t="n"/>
       <c r="F15" s="1" t="n"/>
-      <c r="G15" s="1" t="n">
+      <c r="G15" s="1" t="n"/>
+      <c r="H15" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
@@ -805,6 +825,9 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -815,12 +838,10 @@
       <c r="D16" s="1" t="n"/>
       <c r="E16" s="1" t="n"/>
       <c r="F16" s="1" t="n"/>
-      <c r="G16" s="1" t="n">
+      <c r="G16" s="1" t="n"/>
+      <c r="H16" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
@@ -828,6 +849,9 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -838,20 +862,21 @@
       <c r="D17" s="1" t="n"/>
       <c r="E17" s="1" t="n"/>
       <c r="F17" s="1" t="n"/>
-      <c r="G17" s="1" t="n">
+      <c r="G17" s="1" t="n"/>
+      <c r="H17" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="H17" t="n">
-        <v>28</v>
-      </c>
       <c r="I17" t="n">
-        <v>17.94871794871795</v>
+        <v>4</v>
       </c>
       <c r="J17" t="n">
-        <v>28</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K17" t="n">
-        <v>17.94871794871795</v>
+        <v>4</v>
+      </c>
+      <c r="L17" t="n">
+        <v>5.88235294117647</v>
       </c>
     </row>
     <row r="18">
@@ -861,20 +886,21 @@
       <c r="D18" s="1" t="n"/>
       <c r="E18" s="1" t="n"/>
       <c r="F18" s="1" t="n"/>
-      <c r="G18" s="1" t="n">
+      <c r="G18" s="1" t="n"/>
+      <c r="H18" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="H18" t="n">
-        <v>12</v>
-      </c>
       <c r="I18" t="n">
-        <v>7.692307692307693</v>
+        <v>4</v>
       </c>
       <c r="J18" t="n">
-        <v>40</v>
+        <v>5.88235294117647</v>
       </c>
       <c r="K18" t="n">
-        <v>25.64102564102564</v>
+        <v>8</v>
+      </c>
+      <c r="L18" t="n">
+        <v>11.76470588235294</v>
       </c>
     </row>
     <row r="19">
@@ -884,27 +910,26 @@
       <c r="D19" s="1" t="n"/>
       <c r="E19" s="1" t="n"/>
       <c r="F19" s="1" t="n"/>
-      <c r="G19" s="1" t="n">
+      <c r="G19" s="1" t="n"/>
+      <c r="H19" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="H19" t="n">
-        <v>116</v>
-      </c>
       <c r="I19" t="n">
-        <v>74.35897435897436</v>
+        <v>60</v>
       </c>
       <c r="J19" t="n">
-        <v>156</v>
+        <v>88.23529411764706</v>
       </c>
       <c r="K19" t="n">
+        <v>68</v>
+      </c>
+      <c r="L19" t="n">
         <v>100</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A2:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A19"/>
+  <mergeCells count="19">
+    <mergeCell ref="A2:A19"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
@@ -920,6 +945,9 @@
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="G8:G13"/>
+    <mergeCell ref="G14:G19"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -379,7 +379,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,27 +927,360 @@
         <v>100</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Eje Transversal</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="inlineStr">
+        <is>
+          <t>Libro 68</t>
+        </is>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>5.283236994219653</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>1.213110041412962</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
+        <v>5</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2.890173410404624</v>
+      </c>
+      <c r="K20" t="n">
+        <v>5</v>
+      </c>
+      <c r="L20" t="n">
+        <v>2.890173410404624</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="1" t="n"/>
+      <c r="C21" s="1" t="n"/>
+      <c r="D21" s="1" t="n"/>
+      <c r="E21" s="1" t="n"/>
+      <c r="F21" s="1" t="n"/>
+      <c r="G21" s="1" t="n"/>
+      <c r="H21" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1.15606936416185</v>
+      </c>
+      <c r="K21" t="n">
+        <v>7</v>
+      </c>
+      <c r="L21" t="n">
+        <v>4.046242774566474</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="1" t="n"/>
+      <c r="C22" s="1" t="n"/>
+      <c r="D22" s="1" t="n"/>
+      <c r="E22" s="1" t="n"/>
+      <c r="F22" s="1" t="n"/>
+      <c r="G22" s="1" t="n"/>
+      <c r="H22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I22" t="n">
+        <v>12</v>
+      </c>
+      <c r="J22" t="n">
+        <v>6.936416184971097</v>
+      </c>
+      <c r="K22" t="n">
+        <v>19</v>
+      </c>
+      <c r="L22" t="n">
+        <v>10.98265895953757</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="1" t="n"/>
+      <c r="C23" s="1" t="n"/>
+      <c r="D23" s="1" t="n"/>
+      <c r="E23" s="1" t="n"/>
+      <c r="F23" s="1" t="n"/>
+      <c r="G23" s="1" t="n"/>
+      <c r="H23" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I23" t="n">
+        <v>11</v>
+      </c>
+      <c r="J23" t="n">
+        <v>6.358381502890173</v>
+      </c>
+      <c r="K23" t="n">
+        <v>30</v>
+      </c>
+      <c r="L23" t="n">
+        <v>17.34104046242775</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="1" t="n"/>
+      <c r="C24" s="1" t="n"/>
+      <c r="D24" s="1" t="n"/>
+      <c r="E24" s="1" t="n"/>
+      <c r="F24" s="1" t="n"/>
+      <c r="G24" s="1" t="n"/>
+      <c r="H24" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I24" t="n">
+        <v>33</v>
+      </c>
+      <c r="J24" t="n">
+        <v>19.07514450867052</v>
+      </c>
+      <c r="K24" t="n">
+        <v>63</v>
+      </c>
+      <c r="L24" t="n">
+        <v>36.41618497109826</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="1" t="n"/>
+      <c r="C25" s="1" t="n"/>
+      <c r="D25" s="1" t="n"/>
+      <c r="E25" s="1" t="n"/>
+      <c r="F25" s="1" t="n"/>
+      <c r="G25" s="1" t="n"/>
+      <c r="H25" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I25" t="n">
+        <v>110</v>
+      </c>
+      <c r="J25" t="n">
+        <v>63.58381502890174</v>
+      </c>
+      <c r="K25" t="n">
+        <v>173</v>
+      </c>
+      <c r="L25" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="1" t="inlineStr">
+        <is>
+          <t>Libro 69</t>
+        </is>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="D26" s="1" t="n">
+        <v>5.682539682539683</v>
+      </c>
+      <c r="E26" s="1" t="n">
+        <v>0.8948850498428026</v>
+      </c>
+      <c r="F26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="H26" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" t="n">
+        <v>1.587301587301587</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="1" t="n"/>
+      <c r="C27" s="1" t="n"/>
+      <c r="D27" s="1" t="n"/>
+      <c r="E27" s="1" t="n"/>
+      <c r="F27" s="1" t="n"/>
+      <c r="G27" s="1" t="n"/>
+      <c r="H27" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n"/>
+      <c r="B28" s="1" t="n"/>
+      <c r="C28" s="1" t="n"/>
+      <c r="D28" s="1" t="n"/>
+      <c r="E28" s="1" t="n"/>
+      <c r="F28" s="1" t="n"/>
+      <c r="G28" s="1" t="n"/>
+      <c r="H28" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>1.587301587301587</v>
+      </c>
+      <c r="K28" t="n">
+        <v>2</v>
+      </c>
+      <c r="L28" t="n">
+        <v>3.174603174603174</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="1" t="n"/>
+      <c r="C29" s="1" t="n"/>
+      <c r="D29" s="1" t="n"/>
+      <c r="E29" s="1" t="n"/>
+      <c r="F29" s="1" t="n"/>
+      <c r="G29" s="1" t="n"/>
+      <c r="H29" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I29" t="n">
+        <v>5</v>
+      </c>
+      <c r="J29" t="n">
+        <v>7.936507936507936</v>
+      </c>
+      <c r="K29" t="n">
+        <v>7</v>
+      </c>
+      <c r="L29" t="n">
+        <v>11.11111111111111</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="1" t="n"/>
+      <c r="C30" s="1" t="n"/>
+      <c r="D30" s="1" t="n"/>
+      <c r="E30" s="1" t="n"/>
+      <c r="F30" s="1" t="n"/>
+      <c r="G30" s="1" t="n"/>
+      <c r="H30" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3.174603174603174</v>
+      </c>
+      <c r="K30" t="n">
+        <v>9</v>
+      </c>
+      <c r="L30" t="n">
+        <v>14.28571428571428</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="1" t="n"/>
+      <c r="C31" s="1" t="n"/>
+      <c r="D31" s="1" t="n"/>
+      <c r="E31" s="1" t="n"/>
+      <c r="F31" s="1" t="n"/>
+      <c r="G31" s="1" t="n"/>
+      <c r="H31" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I31" t="n">
+        <v>54</v>
+      </c>
+      <c r="J31" t="n">
+        <v>85.71428571428571</v>
+      </c>
+      <c r="K31" t="n">
+        <v>63</v>
+      </c>
+      <c r="L31" t="n">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="32">
     <mergeCell ref="A2:A19"/>
+    <mergeCell ref="A20:A31"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
+    <mergeCell ref="B20:B25"/>
+    <mergeCell ref="B26:B31"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
+    <mergeCell ref="C20:C25"/>
+    <mergeCell ref="C26:C31"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
+    <mergeCell ref="D20:D25"/>
+    <mergeCell ref="D26:D31"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
+    <mergeCell ref="E20:E25"/>
+    <mergeCell ref="E26:E31"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
+    <mergeCell ref="F20:F25"/>
+    <mergeCell ref="F26:F31"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G19"/>
+    <mergeCell ref="G20:G25"/>
+    <mergeCell ref="G26:G31"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/output2.xlsx
+++ b/output2.xlsx
@@ -7,7 +7,8 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="tabla de datos dispersos" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -379,7 +380,25 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -927,360 +946,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Eje Transversal</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="inlineStr">
-        <is>
-          <t>Libro 68</t>
-        </is>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>173</v>
-      </c>
-      <c r="D20" s="1" t="n">
-        <v>5.283236994219653</v>
-      </c>
-      <c r="E20" s="1" t="n">
-        <v>1.213110041412962</v>
-      </c>
-      <c r="F20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G20" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H20" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="n">
-        <v>2.890173410404624</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5</v>
-      </c>
-      <c r="L20" t="n">
-        <v>2.890173410404624</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n"/>
-      <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="n"/>
-      <c r="D21" s="1" t="n"/>
-      <c r="E21" s="1" t="n"/>
-      <c r="F21" s="1" t="n"/>
-      <c r="G21" s="1" t="n"/>
-      <c r="H21" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1.15606936416185</v>
-      </c>
-      <c r="K21" t="n">
-        <v>7</v>
-      </c>
-      <c r="L21" t="n">
-        <v>4.046242774566474</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="n"/>
-      <c r="D22" s="1" t="n"/>
-      <c r="E22" s="1" t="n"/>
-      <c r="F22" s="1" t="n"/>
-      <c r="G22" s="1" t="n"/>
-      <c r="H22" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I22" t="n">
-        <v>12</v>
-      </c>
-      <c r="J22" t="n">
-        <v>6.936416184971097</v>
-      </c>
-      <c r="K22" t="n">
-        <v>19</v>
-      </c>
-      <c r="L22" t="n">
-        <v>10.98265895953757</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n"/>
-      <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="n"/>
-      <c r="D23" s="1" t="n"/>
-      <c r="E23" s="1" t="n"/>
-      <c r="F23" s="1" t="n"/>
-      <c r="G23" s="1" t="n"/>
-      <c r="H23" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I23" t="n">
-        <v>11</v>
-      </c>
-      <c r="J23" t="n">
-        <v>6.358381502890173</v>
-      </c>
-      <c r="K23" t="n">
-        <v>30</v>
-      </c>
-      <c r="L23" t="n">
-        <v>17.34104046242775</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="1" t="n"/>
-      <c r="C24" s="1" t="n"/>
-      <c r="D24" s="1" t="n"/>
-      <c r="E24" s="1" t="n"/>
-      <c r="F24" s="1" t="n"/>
-      <c r="G24" s="1" t="n"/>
-      <c r="H24" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I24" t="n">
-        <v>33</v>
-      </c>
-      <c r="J24" t="n">
-        <v>19.07514450867052</v>
-      </c>
-      <c r="K24" t="n">
-        <v>63</v>
-      </c>
-      <c r="L24" t="n">
-        <v>36.41618497109826</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="1" t="n"/>
-      <c r="C25" s="1" t="n"/>
-      <c r="D25" s="1" t="n"/>
-      <c r="E25" s="1" t="n"/>
-      <c r="F25" s="1" t="n"/>
-      <c r="G25" s="1" t="n"/>
-      <c r="H25" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I25" t="n">
-        <v>110</v>
-      </c>
-      <c r="J25" t="n">
-        <v>63.58381502890174</v>
-      </c>
-      <c r="K25" t="n">
-        <v>173</v>
-      </c>
-      <c r="L25" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="1" t="inlineStr">
-        <is>
-          <t>Libro 69</t>
-        </is>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>63</v>
-      </c>
-      <c r="D26" s="1" t="n">
-        <v>5.682539682539683</v>
-      </c>
-      <c r="E26" s="1" t="n">
-        <v>0.8948850498428026</v>
-      </c>
-      <c r="F26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="G26" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="H26" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1.587301587301587</v>
-      </c>
-      <c r="K26" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" t="n">
-        <v>1.587301587301587</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="1" t="n"/>
-      <c r="C27" s="1" t="n"/>
-      <c r="D27" s="1" t="n"/>
-      <c r="E27" s="1" t="n"/>
-      <c r="F27" s="1" t="n"/>
-      <c r="G27" s="1" t="n"/>
-      <c r="H27" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n"/>
-      <c r="B28" s="1" t="n"/>
-      <c r="C28" s="1" t="n"/>
-      <c r="D28" s="1" t="n"/>
-      <c r="E28" s="1" t="n"/>
-      <c r="F28" s="1" t="n"/>
-      <c r="G28" s="1" t="n"/>
-      <c r="H28" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1.587301587301587</v>
-      </c>
-      <c r="K28" t="n">
-        <v>2</v>
-      </c>
-      <c r="L28" t="n">
-        <v>3.174603174603174</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n"/>
-      <c r="B29" s="1" t="n"/>
-      <c r="C29" s="1" t="n"/>
-      <c r="D29" s="1" t="n"/>
-      <c r="E29" s="1" t="n"/>
-      <c r="F29" s="1" t="n"/>
-      <c r="G29" s="1" t="n"/>
-      <c r="H29" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5</v>
-      </c>
-      <c r="J29" t="n">
-        <v>7.936507936507936</v>
-      </c>
-      <c r="K29" t="n">
-        <v>7</v>
-      </c>
-      <c r="L29" t="n">
-        <v>11.11111111111111</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n"/>
-      <c r="B30" s="1" t="n"/>
-      <c r="C30" s="1" t="n"/>
-      <c r="D30" s="1" t="n"/>
-      <c r="E30" s="1" t="n"/>
-      <c r="F30" s="1" t="n"/>
-      <c r="G30" s="1" t="n"/>
-      <c r="H30" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="I30" t="n">
-        <v>2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>3.174603174603174</v>
-      </c>
-      <c r="K30" t="n">
-        <v>9</v>
-      </c>
-      <c r="L30" t="n">
-        <v>14.28571428571428</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n"/>
-      <c r="B31" s="1" t="n"/>
-      <c r="C31" s="1" t="n"/>
-      <c r="D31" s="1" t="n"/>
-      <c r="E31" s="1" t="n"/>
-      <c r="F31" s="1" t="n"/>
-      <c r="G31" s="1" t="n"/>
-      <c r="H31" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="I31" t="n">
-        <v>54</v>
-      </c>
-      <c r="J31" t="n">
-        <v>85.71428571428571</v>
-      </c>
-      <c r="K31" t="n">
-        <v>63</v>
-      </c>
-      <c r="L31" t="n">
-        <v>100</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="32">
+  <mergeCells count="19">
     <mergeCell ref="A2:A19"/>
-    <mergeCell ref="A20:A31"/>
     <mergeCell ref="B2:B7"/>
     <mergeCell ref="B8:B13"/>
     <mergeCell ref="B14:B19"/>
-    <mergeCell ref="B20:B25"/>
-    <mergeCell ref="B26:B31"/>
     <mergeCell ref="C2:C7"/>
     <mergeCell ref="C8:C13"/>
     <mergeCell ref="C14:C19"/>
-    <mergeCell ref="C20:C25"/>
-    <mergeCell ref="C26:C31"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D8:D13"/>
     <mergeCell ref="D14:D19"/>
-    <mergeCell ref="D20:D25"/>
-    <mergeCell ref="D26:D31"/>
     <mergeCell ref="E2:E7"/>
     <mergeCell ref="E8:E13"/>
     <mergeCell ref="E14:E19"/>
-    <mergeCell ref="E20:E25"/>
-    <mergeCell ref="E26:E31"/>
     <mergeCell ref="F2:F7"/>
     <mergeCell ref="F8:F13"/>
     <mergeCell ref="F14:F19"/>
-    <mergeCell ref="F20:F25"/>
-    <mergeCell ref="F26:F31"/>
     <mergeCell ref="G2:G7"/>
     <mergeCell ref="G8:G13"/>
     <mergeCell ref="G14:G19"/>
-    <mergeCell ref="G20:G25"/>
-    <mergeCell ref="G26:G31"/>
   </mergeCells>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
